--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.012721-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.012721-2.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1915,12 +1915,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1991,12 +1991,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2299,12 +2299,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2565,12 +2565,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3523,12 +3523,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4097,12 +4097,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4553,12 +4553,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5509,12 +5509,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5737,12 +5737,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5775,12 +5775,12 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6003,12 +6003,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6233,12 +6233,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6575,12 +6575,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6841,12 +6841,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6955,12 +6955,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6993,12 +6993,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7297,12 +7297,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7723,12 +7723,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7765,12 +7765,12 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7803,12 +7803,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7997,12 +7997,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9099,12 +9099,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10437,12 +10437,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11349,12 +11349,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13021,12 +13021,12 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13135,12 +13135,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13557,12 +13557,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14317,12 +14317,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14963,12 +14963,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15761,12 +15761,12 @@
       <c r="H402" t="inlineStr"/>
       <c r="I402" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16673,12 +16673,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17735,12 +17735,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18191,12 +18191,12 @@
       <c r="H466" t="inlineStr"/>
       <c r="I466" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18841,12 +18841,12 @@
       <c r="H483" t="inlineStr"/>
       <c r="I483" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19035,12 +19035,12 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19301,12 +19301,12 @@
       <c r="H495" t="inlineStr"/>
       <c r="I495" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19643,12 +19643,12 @@
       <c r="H504" t="inlineStr"/>
       <c r="I504" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20479,12 +20479,12 @@
       <c r="H526" t="inlineStr"/>
       <c r="I526" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20593,12 +20593,12 @@
       <c r="H529" t="inlineStr"/>
       <c r="I529" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
